--- a/app_BaseDatos/umind_bd.xlsx
+++ b/app_BaseDatos/umind_bd.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,43 +424,34 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>transtornos</t>
+          <t>categoria-trastornos</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>sexo</t>
+          <t>aa</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
-          <t>TDAH</t>
+          <t>bb</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
-          <t>hombre</t>
+          <t>cc</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
-          <t>Parejas tóxica</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>mujer</t>
+          <t>dd</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A2:A1000000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"Depresión,Parejas tóxica,Soledad,TDAH,TCA"</formula1>
+    <dataValidation sqref="A2:A1000000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"c1 - t1,cc6 - tt6,cc5 - tt5,cc4 - tt4,cc3 - tt3,cc2 - tt2,cc1 - tt1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
